--- a/PFOA inhalation Rat/Data/PFOA_male_tissues_IV_kim_2016.xlsx
+++ b/PFOA inhalation Rat/Data/PFOA_male_tissues_IV_kim_2016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpjio\Documents\GitHub\PFAS_PBK_models\PFOA inhalation Rat\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1DE3B1-AA6C-4504-953A-069A3BC20899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAFE7C6-2DED-4D3B-87E9-979705FE19AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,11 +112,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -432,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A6"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,7 +451,7 @@
     <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -463,15 +468,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2">
         <v>288</v>
       </c>
-      <c r="C2">
-        <v>0.505</v>
+      <c r="C2" s="5">
+        <v>5.05</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -479,16 +484,18 @@
       <c r="E2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G2" s="3"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2">
         <v>288</v>
       </c>
-      <c r="C3">
-        <v>0.27700000000000002</v>
+      <c r="C3" s="5">
+        <v>2.77</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -496,16 +503,18 @@
       <c r="E3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="2">
         <v>288</v>
       </c>
-      <c r="C4">
-        <v>0.109</v>
+      <c r="C4" s="5">
+        <v>1.0900000000000001</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -513,15 +522,17 @@
       <c r="E4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2">
         <v>288</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <v>0.51200000000000001</v>
       </c>
       <c r="D5">
@@ -530,15 +541,17 @@
       <c r="E5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2">
         <v>288</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <v>0.76700000000000002</v>
       </c>
       <c r="D6">
@@ -547,16 +560,19 @@
       <c r="E6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
     </row>
